--- a/98_output/experimento_029_paquetes/simulacion_coa.xlsx
+++ b/98_output/experimento_029_paquetes/simulacion_coa.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Coalicion</t>
   </si>
@@ -23,22 +23,25 @@
     <t xml:space="preserve">Asientos_ganados</t>
   </si>
   <si>
-    <t xml:space="preserve">CHV</t>
+    <t xml:space="preserve">AprueboDignidad</t>
   </si>
   <si>
-    <t xml:space="preserve">Humanista</t>
+    <t xml:space="preserve">ECO</t>
   </si>
   <si>
-    <t xml:space="preserve">IND</t>
+    <t xml:space="preserve">INDEP</t>
   </si>
   <si>
-    <t xml:space="preserve">IND 3</t>
+    <t xml:space="preserve">ListaApruebo</t>
   </si>
   <si>
-    <t xml:space="preserve">PC-FA</t>
+    <t xml:space="preserve">PH</t>
   </si>
   <si>
-    <t xml:space="preserve">UC</t>
+    <t xml:space="preserve">UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VamosCh</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +403,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -411,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -422,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -433,7 +436,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -444,7 +447,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -455,7 +458,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -466,7 +469,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -477,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -488,7 +491,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -499,7 +502,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -510,7 +513,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -521,7 +524,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -532,7 +535,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -543,7 +546,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -554,7 +557,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -565,7 +568,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -576,7 +579,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +590,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -598,7 +601,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1049,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63">
@@ -1060,7 +1063,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64">
@@ -1071,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66">
@@ -1093,7 +1096,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67">
@@ -1104,7 +1107,7 @@
         <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68">
@@ -1115,7 +1118,7 @@
         <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69">
@@ -1126,7 +1129,7 @@
         <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70">
@@ -1137,7 +1140,7 @@
         <v>9</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71">
@@ -1148,7 +1151,7 @@
         <v>10</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72">
@@ -1159,7 +1162,7 @@
         <v>11</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73">
@@ -1170,7 +1173,7 @@
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74">
@@ -1181,7 +1184,7 @@
         <v>13</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75">
@@ -1192,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76">
@@ -1203,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77">
@@ -1214,7 +1217,7 @@
         <v>16</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78">
@@ -1225,7 +1228,7 @@
         <v>17</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79">
@@ -1236,7 +1239,7 @@
         <v>18</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80">
@@ -1247,7 +1250,7 @@
         <v>19</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81">
@@ -1258,7 +1261,7 @@
         <v>20</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82">
@@ -1269,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1280,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1291,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1302,7 +1305,7 @@
         <v>4</v>
       </c>
       <c r="C85" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1313,7 +1316,7 @@
         <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1324,7 +1327,7 @@
         <v>6</v>
       </c>
       <c r="C87" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1335,7 +1338,7 @@
         <v>7</v>
       </c>
       <c r="C88" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1346,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="C89" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1357,7 +1360,7 @@
         <v>9</v>
       </c>
       <c r="C90" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1368,7 +1371,7 @@
         <v>10</v>
       </c>
       <c r="C91" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1379,7 +1382,7 @@
         <v>11</v>
       </c>
       <c r="C92" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -1390,7 +1393,7 @@
         <v>12</v>
       </c>
       <c r="C93" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -1401,7 +1404,7 @@
         <v>13</v>
       </c>
       <c r="C94" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -1412,7 +1415,7 @@
         <v>14</v>
       </c>
       <c r="C95" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -1423,7 +1426,7 @@
         <v>15</v>
       </c>
       <c r="C96" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1437,7 @@
         <v>16</v>
       </c>
       <c r="C97" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -1445,7 +1448,7 @@
         <v>17</v>
       </c>
       <c r="C98" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -1456,7 +1459,7 @@
         <v>18</v>
       </c>
       <c r="C99" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -1467,7 +1470,7 @@
         <v>19</v>
       </c>
       <c r="C100" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -1478,7 +1481,7 @@
         <v>20</v>
       </c>
       <c r="C101" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -1489,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -1500,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -1511,7 +1514,7 @@
         <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -1522,7 +1525,7 @@
         <v>4</v>
       </c>
       <c r="C105" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -1533,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="C106" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -1544,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="C107" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -1555,7 +1558,7 @@
         <v>7</v>
       </c>
       <c r="C108" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -1566,7 +1569,7 @@
         <v>8</v>
       </c>
       <c r="C109" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -1577,7 +1580,7 @@
         <v>9</v>
       </c>
       <c r="C110" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -1588,7 +1591,7 @@
         <v>10</v>
       </c>
       <c r="C111" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -1599,7 +1602,7 @@
         <v>11</v>
       </c>
       <c r="C112" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -1610,7 +1613,7 @@
         <v>12</v>
       </c>
       <c r="C113" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -1621,7 +1624,7 @@
         <v>13</v>
       </c>
       <c r="C114" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -1632,7 +1635,7 @@
         <v>14</v>
       </c>
       <c r="C115" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -1643,7 +1646,7 @@
         <v>15</v>
       </c>
       <c r="C116" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -1654,7 +1657,7 @@
         <v>16</v>
       </c>
       <c r="C117" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -1665,7 +1668,7 @@
         <v>17</v>
       </c>
       <c r="C118" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -1676,7 +1679,7 @@
         <v>18</v>
       </c>
       <c r="C119" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -1687,7 +1690,7 @@
         <v>19</v>
       </c>
       <c r="C120" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -1698,7 +1701,227 @@
         <v>20</v>
       </c>
       <c r="C121" t="n">
-        <v>69</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2</v>
+      </c>
+      <c r="C123" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3</v>
+      </c>
+      <c r="C124" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4</v>
+      </c>
+      <c r="C125" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" t="n">
+        <v>5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6</v>
+      </c>
+      <c r="C127" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" t="n">
+        <v>7</v>
+      </c>
+      <c r="C128" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" t="n">
+        <v>8</v>
+      </c>
+      <c r="C129" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" t="n">
+        <v>9</v>
+      </c>
+      <c r="C130" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" t="n">
+        <v>10</v>
+      </c>
+      <c r="C131" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" t="n">
+        <v>11</v>
+      </c>
+      <c r="C132" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="n">
+        <v>12</v>
+      </c>
+      <c r="C133" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" t="n">
+        <v>13</v>
+      </c>
+      <c r="C134" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" t="n">
+        <v>14</v>
+      </c>
+      <c r="C135" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" t="n">
+        <v>15</v>
+      </c>
+      <c r="C136" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" t="n">
+        <v>16</v>
+      </c>
+      <c r="C137" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" t="n">
+        <v>17</v>
+      </c>
+      <c r="C138" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" t="n">
+        <v>18</v>
+      </c>
+      <c r="C139" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" t="n">
+        <v>19</v>
+      </c>
+      <c r="C140" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" t="n">
+        <v>20</v>
+      </c>
+      <c r="C141" t="n">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
